--- a/APC64 Midi Map.xlsx
+++ b/APC64 Midi Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dotNet\Hsp.MidiProxy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FEE53A-27F7-4C63-BEBF-EA827D426F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479FA767-694D-4E76-A653-E648970B0191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{6E1971FA-92D2-44A1-8005-6ADA5475E4B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E1971FA-92D2-44A1-8005-6ADA5475E4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +691,7 @@
         <v>75</v>
       </c>
       <c r="E12">
-        <v>1270</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
